--- a/판다스 공부/score.xlsx
+++ b/판다스 공부/score.xlsx
@@ -486,8 +486,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1번</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -524,8 +526,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2번</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -562,8 +566,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>3번</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -600,8 +606,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>4번</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -634,8 +642,10 @@
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>5번</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -668,8 +678,10 @@
       <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6번</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -706,8 +718,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>7번</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -744,8 +758,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>8번</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
